--- a/src/main/resources/data/ErrorFiles/tbi_cdes_v1.xlsx
+++ b/src/main/resources/data/ErrorFiles/tbi_cdes_v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="518">
   <si>
     <t xml:space="preserve">csvFile</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">integer</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/Mortality</t>
+    <t xml:space="preserve">/tbi/creactive/Mortality</t>
   </si>
   <si>
     <t xml:space="preserve">creactive</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">real</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/impact_prob_core_mortality</t>
+    <t xml:space="preserve">/tbi/creactive/impact_prob_core_mortality</t>
   </si>
   <si>
     <t xml:space="preserve">Glasgow Outcome Scale Extended</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">{"ModerateDisabUpper","Moderate disability UPPER LEVEL"},{"ModerateDisabLower","Moderate disability LOWER LEVEL"},{"Vegetative","Vegetative state"},{"Deceased","Deceased"},{"GoodRecoveryUpper","Good recovery UPPER} LEVEL"},{"SevereDisabLower","Severe disability LOWER LEVEL"},{"GoodRecoveryLower","Good recovery LOWER LEVEL"},{"SevereDisabUpper","Severe disability UPPER LEVEL"}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/gose</t>
+    <t xml:space="preserve">/tbi/creactive/gose</t>
   </si>
   <si>
     <t xml:space="preserve">Hemoglobin ER (gr/dl)</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">The lowest hemoglobin value available before ICU admission</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/hb</t>
+    <t xml:space="preserve">/tbi/creactive/hb</t>
   </si>
   <si>
     <t xml:space="preserve">Blood glucose at ER (mg/dl</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">The first blood glucose value before ICU admission</t>
   </si>
   <si>
-    <t xml:space="preserve">root/creactive/glucose</t>
+    <t xml:space="preserve">/tbi/creactive/glucose</t>
   </si>
   <si>
     <t xml:space="preserve">Hypotension</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">{"NotAvailable","Not Available"},{"No","No"},{"Yes","Yes"}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/hypotension</t>
+    <t xml:space="preserve">/tbi/creactive/hypotension</t>
   </si>
   <si>
     <t xml:space="preserve">Hypoxia</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">hypoxia</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/hypoxia</t>
+    <t xml:space="preserve">/tbi/creactive/hypoxia</t>
   </si>
   <si>
     <t xml:space="preserve">Epidural Hematoma</t>
@@ -160,7 +160,7 @@
     <t xml:space="preserve">Collection of blood between the dura mater and cranial theca, caused by fractures that can injure the middle meningeal artery or one of its branches. It may be associated with intracranial hypertension and cause coma, usually after a lucid interval. If promptly operated the prognosis is favourable.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/epiduralhematoma</t>
+    <t xml:space="preserve">/tbi/creactive/epiduralhematoma</t>
   </si>
   <si>
     <t xml:space="preserve">Traumatic subarachnoid haemorrhage</t>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">tSAH is blood distributed in the subarachnoid space. Its location can be very limited for example in the interpeduncular space or over the tentorium. Otherwise it can be found in the cortical sulcus or on the brain vault.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/traumaticsubarachnoidhemorr</t>
+    <t xml:space="preserve">/tbi/creactive/traumaticsubarachnoidhemorr</t>
   </si>
   <si>
     <t xml:space="preserve">Not Evacuated Hematoma</t>
@@ -181,7 +181,7 @@
     <t xml:space="preserve">notevacuatedhematoma</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/otevacuatedhematoma</t>
+    <t xml:space="preserve">/tbi/creactive/otevacuatedhematoma</t>
   </si>
   <si>
     <t xml:space="preserve">Marshall</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">{"I","(D-I) Diffuse injury I"},{"II","(D-II) Diffuse injury II"},{"III","(D-III) Diffuse injury III"},{"IV","(D-IV) Diffuse injury IV"},{"V","(5-EML) Evacuated mass lesion"},{"VI","(6-NEML) Not Evacuated mass lesion"}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/marshall</t>
+    <t xml:space="preserve">/tbi/creactive/marshall</t>
   </si>
   <si>
     <t xml:space="preserve">shift</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Midline shift refers to a the shift of the brain past the imaginary centre line dividing the brain into its two hemispheres.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/shift</t>
+    <t xml:space="preserve">/tbi/creactive/shift</t>
   </si>
   <si>
     <t xml:space="preserve">Cistern</t>
@@ -217,7 +217,7 @@
     <t xml:space="preserve">Le cisterne perimesencefaliche sono gli spazi liquorali che circondano il mesencefalo.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/cistern</t>
+    <t xml:space="preserve">/tbi/creactive/cistern</t>
   </si>
   <si>
     <t xml:space="preserve">Extracranial Trauma</t>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">extracranialtrauma</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/extracranialtrauma</t>
+    <t xml:space="preserve">/tbi/creactive/extracranialtrauma</t>
   </si>
   <si>
     <t xml:space="preserve">Petechiae</t>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">petechiae</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/petechiae</t>
+    <t xml:space="preserve">/tbi/creactive/petechiae</t>
   </si>
   <si>
     <t xml:space="preserve">Pupils on admission</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">{"notEvaluable","not Evaluable"},{"BiDiallPupil","Bilaterally dilated and non-reactive"},{"UniDiallPupil","Unilaterally dilated and non-reactive"},{"bilalPupil","Reattive bilateralmente e/o miotiche"}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/pupilsonadmission</t>
+    <t xml:space="preserve">/tbi/creactive/pupilsonadmission</t>
   </si>
   <si>
     <t xml:space="preserve">GCS total score</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">{"notEvaluable","not Evaluable"},{“1”,”1”},{“2”,”2”},{“3”,”3”}{“4”,”4”},{“5”,”5”},{“6”,”6”},{“7”,”7”},{“8”,”8”},{“9”,”9”},{“10”,”10”},{“11”,”11”},{“12”,”12”},{“13”,”13”},{“14”,”14”},{“15”,”15}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/gcsonadmission</t>
+    <t xml:space="preserve">/tbi/creactive/gcsonadmission</t>
   </si>
   <si>
     <t xml:space="preserve">GCS Best verbal response</t>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">{“1”,"None (1)"},{“2”,"Incomprehensible sounds (2)"},{"3","Inappropriate words (3)"},{“4”,"Confused (4)"},{“5”,"Orientated (5)"},{"notEvaluable","Not Evaluable"}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/gcsonadmission_verbal</t>
+    <t xml:space="preserve">/tbi/creactive/gcsonadmission_verbal</t>
   </si>
   <si>
     <t xml:space="preserve">GCS: Best motor response</t>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">{“1”,"None (1)"},{“2”,"Extension to pain (2)"},{"3","Flexion (abnormal) to pain (3)"},{“4”,"Withdraws to pain (4)"},{“5”,"Localizes pain (5)"},{“6”,"Obeys commands (6)"},{"notEvaluable","Not Evaluable"}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/gcsonadmission_motor</t>
+    <t xml:space="preserve">/tbi/creactive/gcsonadmission_motor</t>
   </si>
   <si>
     <t xml:space="preserve">GCS: Best eyes response</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">{“1”,"None (1)"},{“2”,"To pain (2)"},{"3","To speech (3)"},{“4”,"Spontaneously (4)"},{"notEvaluable","Not Evaluable"}</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/creactive/gcsonadmission_eyes</t>
+    <t xml:space="preserve">/tbi/creactive/gcsonadmission_eyes</t>
   </si>
   <si>
     <t xml:space="preserve">Age Years</t>
@@ -313,7 +313,7 @@
     <t xml:space="preserve">Subject age in years.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/subjectageyears</t>
+    <t xml:space="preserve">/tbi/demographics/subjectageyears</t>
   </si>
   <si>
     <t xml:space="preserve">mip-cde</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">Gender of the patient - Sex assigned at birth</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/gender</t>
+    <t xml:space="preserve">/tbi/demographics/gender</t>
   </si>
   <si>
     <t xml:space="preserve">Dataset</t>
@@ -349,7 +349,7 @@
     <t xml:space="preserve">Variable used to differentiate datasets.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/dataset</t>
+    <t xml:space="preserve">/tbi/dataset</t>
   </si>
   <si>
     <t xml:space="preserve">Brainstem</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">Brainstem volume</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/brainstem</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/brainstem</t>
   </si>
   <si>
     <t xml:space="preserve">TIV</t>
@@ -376,7 +376,7 @@
     <t xml:space="preserve">Total intra-cranial volume</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/tiv</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/tiv</t>
   </si>
   <si>
     <t xml:space="preserve">3rd Ventricle</t>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">_3rdventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/_3rdventricle</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/csf_volume/_3rdventricle</t>
   </si>
   <si>
     <t xml:space="preserve">4th Ventricle</t>
@@ -394,7 +394,7 @@
     <t xml:space="preserve">_4thventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/_4thventricle</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/csf_volume/_4thventricle</t>
   </si>
   <si>
     <t xml:space="preserve">CSF global</t>
@@ -403,7 +403,7 @@
     <t xml:space="preserve">csfglobal</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/csfglobal</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/csf_volume/csfglobal</t>
   </si>
   <si>
     <t xml:space="preserve">Left inferior lateral ventricle</t>
@@ -412,7 +412,7 @@
     <t xml:space="preserve">leftinflatvent</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/leftinflatvent</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/csf_volume/leftinflatvent</t>
   </si>
   <si>
     <t xml:space="preserve">Left lateral ventricle</t>
@@ -421,7 +421,7 @@
     <t xml:space="preserve">leftlateralventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/leftlateralventricle</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/csf_volume/leftlateralventricle</t>
   </si>
   <si>
     <t xml:space="preserve">Right inferior lateral ventricle</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">rightinflatvent</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/rightinflatvent</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/csf_volume/rightinflatvent</t>
   </si>
   <si>
     <t xml:space="preserve">Right lateral ventricle</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">rightlateralventricle</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/csf_volume/rightlateralventricle</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/csf_volume/rightlateralventricle</t>
   </si>
   <si>
     <t xml:space="preserve">Cerebellar Vermal Lobules I-V</t>
@@ -448,7 +448,7 @@
     <t xml:space="preserve">cerebellarvermallobulesiv</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesiv</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesiv</t>
   </si>
   <si>
     <t xml:space="preserve">Cerebellar Vermal Lobules VIII-X</t>
@@ -457,7 +457,7 @@
     <t xml:space="preserve">cerebellarvermallobulesviiix</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesviiix</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesviiix</t>
   </si>
   <si>
     <t xml:space="preserve">Cerebellar Vermal Lobules VI-VII</t>
@@ -466,7 +466,7 @@
     <t xml:space="preserve">cerebellarvermallobulesvivii</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesvivii</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesvivii</t>
   </si>
   <si>
     <t xml:space="preserve">Left Cerebellum Exterior</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve">leftcerebellumexterior</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/leftcerebellumexterior</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebellum/leftcerebellumexterior</t>
   </si>
   <si>
     <t xml:space="preserve">Right Cerebellum Exterior</t>
@@ -484,7 +484,7 @@
     <t xml:space="preserve">rightcerebellumexterior</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/rightcerebellumexterior</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebellum/rightcerebellumexterior</t>
   </si>
   <si>
     <t xml:space="preserve">Left Amygdala</t>
@@ -493,7 +493,7 @@
     <t xml:space="preserve">leftamygdala</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/leftamygdala</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/leftamygdala</t>
   </si>
   <si>
     <t xml:space="preserve">Right Amygdala</t>
@@ -502,7 +502,7 @@
     <t xml:space="preserve">rightamygdala</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/rightamygdala</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/amygdala/rightamygdala</t>
   </si>
   <si>
     <t xml:space="preserve">Left Accumbens Area</t>
@@ -511,7 +511,7 @@
     <t xml:space="preserve">leftaccumbensarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftaccumbensarea</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftaccumbensarea</t>
   </si>
   <si>
     <t xml:space="preserve">Left Basal Forebrain</t>
@@ -520,7 +520,7 @@
     <t xml:space="preserve">leftbasalforebrain</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftbasalforebrain</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftbasalforebrain</t>
   </si>
   <si>
     <t xml:space="preserve">Left Caudate</t>
@@ -529,7 +529,7 @@
     <t xml:space="preserve">leftcaudate</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftcaudate</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftcaudate</t>
   </si>
   <si>
     <t xml:space="preserve">Left Pallidum</t>
@@ -538,7 +538,7 @@
     <t xml:space="preserve">leftpallidum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftpallidum</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftpallidum</t>
   </si>
   <si>
     <t xml:space="preserve">Left Putamen</t>
@@ -547,7 +547,7 @@
     <t xml:space="preserve">leftputamen</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftputamen</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/leftputamen</t>
   </si>
   <si>
     <t xml:space="preserve">Right Accumbens Area</t>
@@ -556,7 +556,7 @@
     <t xml:space="preserve">rightaccumbensarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightaccumbensarea</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightaccumbensarea</t>
   </si>
   <si>
     <t xml:space="preserve">Right Basal Forebrain</t>
@@ -565,7 +565,7 @@
     <t xml:space="preserve">rightbasalforebrain</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightbasalforebrain</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightbasalforebrain</t>
   </si>
   <si>
     <t xml:space="preserve">Right Caudate</t>
@@ -574,7 +574,7 @@
     <t xml:space="preserve">rightcaudate</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightcaudate</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightcaudate</t>
   </si>
   <si>
     <t xml:space="preserve">Right Pallidum</t>
@@ -583,7 +583,7 @@
     <t xml:space="preserve">rightpallidum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightpallidum</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightpallidum</t>
   </si>
   <si>
     <t xml:space="preserve">Right Putamen</t>
@@ -592,7 +592,7 @@
     <t xml:space="preserve">rightputamen</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightputamen</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/cerebral_nuclei/basal_ganglia/rightputamen</t>
   </si>
   <si>
     <t xml:space="preserve">Left Ventral DC</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">leftventraldc</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/diencephalon/leftventraldc</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/diencephalon/leftventraldc</t>
   </si>
   <si>
     <t xml:space="preserve">Right Ventral DC</t>
@@ -610,7 +610,7 @@
     <t xml:space="preserve">rightventraldc</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/diencephalon/rightventraldc</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/diencephalon/rightventraldc</t>
   </si>
   <si>
     <t xml:space="preserve">Left anterior orbital gyrus</t>
@@ -619,7 +619,7 @@
     <t xml:space="preserve">leftaorganteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftaorganteriororbitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftaorganteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left central operculum</t>
@@ -628,7 +628,7 @@
     <t xml:space="preserve">leftcocentraloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftcocentraloperculum</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftcocentraloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Left frontal operculum</t>
@@ -637,7 +637,7 @@
     <t xml:space="preserve">leftfofrontaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftfofrontaloperculum</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftfofrontaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Left frontal pole</t>
@@ -646,7 +646,7 @@
     <t xml:space="preserve">leftfrpfrontalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftfrpfrontalpole</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftfrpfrontalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Left gyrus rectus</t>
@@ -655,7 +655,7 @@
     <t xml:space="preserve">leftgregyrusrectus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftgregyrusrectus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftgregyrusrectus</t>
   </si>
   <si>
     <t xml:space="preserve">Left lateral orbital gyrus</t>
@@ -664,7 +664,7 @@
     <t xml:space="preserve">leftlorglateralorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftlorglateralorbitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftlorglateralorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left medial frontal cortex</t>
@@ -673,7 +673,7 @@
     <t xml:space="preserve">leftmfcmedialfrontalcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmfcmedialfrontalcortex</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftmfcmedialfrontalcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle frontal gyrus</t>
@@ -682,7 +682,7 @@
     <t xml:space="preserve">leftmfgmiddlefrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmfgmiddlefrontalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftmfgmiddlefrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left medial orbital gyrus</t>
@@ -691,7 +691,7 @@
     <t xml:space="preserve">leftmorgmedialorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmorgmedialorbitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftmorgmedialorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left precentral gyrus medial segment</t>
@@ -700,7 +700,7 @@
     <t xml:space="preserve">leftmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmprgprecentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior frontal gyrus medial segment</t>
@@ -709,7 +709,7 @@
     <t xml:space="preserve">leftmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftmsfgsuperiorfrontalgyrusmedialsegment</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Left opercular part of the inferior frontal gyrus</t>
@@ -718,7 +718,7 @@
     <t xml:space="preserve">leftopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftopifgopercularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left orbital part of the inferior frontal gyrus</t>
@@ -727,7 +727,7 @@
     <t xml:space="preserve">leftorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftorifgorbitalpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left parietal operculum</t>
@@ -736,7 +736,7 @@
     <t xml:space="preserve">leftpoparietaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftpoparietaloperculum</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftpoparietaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Left posterior orbital gyrus</t>
@@ -745,7 +745,7 @@
     <t xml:space="preserve">leftporgposteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftporgposteriororbitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftporgposteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left precentral gyrus</t>
@@ -754,7 +754,7 @@
     <t xml:space="preserve">leftprgprecentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftprgprecentralgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftprgprecentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left subcallosal area</t>
@@ -763,7 +763,7 @@
     <t xml:space="preserve">leftscasubcallosalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftscasubcallosalarea</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftscasubcallosalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior frontal gyrus</t>
@@ -772,7 +772,7 @@
     <t xml:space="preserve">leftsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftsfgsuperiorfrontalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left supplementary motor cortex</t>
@@ -781,7 +781,7 @@
     <t xml:space="preserve">leftsmcsupplementarymotorcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/leftsmcsupplementarymotorcortex</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/leftsmcsupplementarymotorcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Left triangular part of the inferior frontal gyrus</t>
@@ -790,7 +790,7 @@
     <t xml:space="preserve">lefttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/lefttrifgtriangularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/lefttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right anterior orbital gyrus</t>
@@ -799,7 +799,7 @@
     <t xml:space="preserve">rightaorganteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightaorganteriororbitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightaorganteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right central operculum</t>
@@ -808,7 +808,7 @@
     <t xml:space="preserve">rightcocentraloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightcocentraloperculum</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightcocentraloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Right frontal operculum</t>
@@ -817,7 +817,7 @@
     <t xml:space="preserve">rightfofrontaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightfofrontaloperculum</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightfofrontaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Right frontal pole</t>
@@ -826,7 +826,7 @@
     <t xml:space="preserve">rightfrpfrontalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightfrpfrontalpole</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightfrpfrontalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Right gyrus rectus</t>
@@ -835,7 +835,7 @@
     <t xml:space="preserve">rightgregyrusrectus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightgregyrusrectus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightgregyrusrectus</t>
   </si>
   <si>
     <t xml:space="preserve">Right lateral orbital gyrus</t>
@@ -844,7 +844,7 @@
     <t xml:space="preserve">rightlorglateralorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightlorglateralorbitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightlorglateralorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right medial frontal cortex</t>
@@ -853,7 +853,7 @@
     <t xml:space="preserve">rightmfcmedialfrontalcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmfcmedialfrontalcortex</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightmfcmedialfrontalcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle frontal gyrus</t>
@@ -862,7 +862,7 @@
     <t xml:space="preserve">rightmfgmiddlefrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmfgmiddlefrontalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightmfgmiddlefrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right medial orbital gyrus</t>
@@ -871,7 +871,7 @@
     <t xml:space="preserve">rightmorgmedialorbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmorgmedialorbitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightmorgmedialorbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right precentral gyrus medial segment</t>
@@ -880,7 +880,7 @@
     <t xml:space="preserve">rightmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmprgprecentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightmprgprecentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior frontal gyrus medial segment</t>
@@ -889,7 +889,7 @@
     <t xml:space="preserve">rightmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightmsfgsuperiorfrontalgyrusmedialsegment</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightmsfgsuperiorfrontalgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Right opercular part of the inferior frontal gyrus</t>
@@ -898,7 +898,7 @@
     <t xml:space="preserve">rightopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightopifgopercularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightopifgopercularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right orbital part of the inferior frontal gyrus</t>
@@ -907,7 +907,7 @@
     <t xml:space="preserve">rightorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightorifgorbitalpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightorifgorbitalpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right parietal operculum</t>
@@ -916,7 +916,7 @@
     <t xml:space="preserve">rightpoparietaloperculum</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightpoparietaloperculum</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightpoparietaloperculum</t>
   </si>
   <si>
     <t xml:space="preserve">Right posterior orbital gyrus</t>
@@ -925,7 +925,7 @@
     <t xml:space="preserve">rightporgposteriororbitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightporgposteriororbitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightporgposteriororbitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right precentral gyrus</t>
@@ -934,7 +934,7 @@
     <t xml:space="preserve">rightprgprecentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightprgprecentralgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightprgprecentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right subcallosal area</t>
@@ -943,7 +943,7 @@
     <t xml:space="preserve">rightscasubcallosalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightscasubcallosalarea</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightscasubcallosalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior frontal gyrus</t>
@@ -952,7 +952,7 @@
     <t xml:space="preserve">rightsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightsfgsuperiorfrontalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightsfgsuperiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right supplementary motor cortex</t>
@@ -961,7 +961,7 @@
     <t xml:space="preserve">rightsmcsupplementarymotorcortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/rightsmcsupplementarymotorcortex</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/rightsmcsupplementarymotorcortex</t>
   </si>
   <si>
     <t xml:space="preserve">Right triangular part of the inferior frontal gyrus</t>
@@ -970,7 +970,7 @@
     <t xml:space="preserve">righttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/frontal/righttrifgtriangularpartoftheinferiorfrontalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/frontal/righttrifgtriangularpartoftheinferiorfrontalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left anterior insula</t>
@@ -979,7 +979,7 @@
     <t xml:space="preserve">leftainsanteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/leftainsanteriorinsula</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/insula/leftainsanteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Left posterior insula</t>
@@ -988,7 +988,7 @@
     <t xml:space="preserve">leftpinsposteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/leftpinsposteriorinsula</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/insula/leftpinsposteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Right anterior insula</t>
@@ -997,7 +997,7 @@
     <t xml:space="preserve">rightainsanteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/rightainsanteriorinsula</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/insula/rightainsanteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Right posterior insula</t>
@@ -1006,7 +1006,7 @@
     <t xml:space="preserve">rightpinsposteriorinsula</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/insula/rightpinsposteriorinsula</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/insula/rightpinsposteriorinsula</t>
   </si>
   <si>
     <t xml:space="preserve">Left anterior cingulate gyrus</t>
@@ -1015,7 +1015,7 @@
     <t xml:space="preserve">leftacgganteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftacgganteriorcingulategyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/leftacgganteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left entorhinal area</t>
@@ -1024,7 +1024,7 @@
     <t xml:space="preserve">leftententorhinalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftententorhinalarea</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/leftententorhinalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Left Hippocampus</t>
@@ -1033,7 +1033,7 @@
     <t xml:space="preserve">lefthippocampus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/lefthippocampus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/lefthippocampus</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle cingulate gyrus</t>
@@ -1042,7 +1042,7 @@
     <t xml:space="preserve">leftmcggmiddlecingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftmcggmiddlecingulategyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/leftmcggmiddlecingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left posterior cingulate gyrus</t>
@@ -1051,7 +1051,7 @@
     <t xml:space="preserve">leftpcggposteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftpcggposteriorcingulategyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/leftpcggposteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left parahippocampal gyrus</t>
@@ -1060,7 +1060,7 @@
     <t xml:space="preserve">leftphgparahippocampalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftphgparahippocampalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/leftphgparahippocampalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left Thalamus</t>
@@ -1069,7 +1069,7 @@
     <t xml:space="preserve">leftthalamusproper</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/leftthalamusproper</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/leftthalamusproper</t>
   </si>
   <si>
     <t xml:space="preserve">Right anterior cingulate gyrus</t>
@@ -1078,7 +1078,7 @@
     <t xml:space="preserve">rightacgganteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightacgganteriorcingulategyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/rightacgganteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right entorhinal area</t>
@@ -1087,7 +1087,7 @@
     <t xml:space="preserve">rightententorhinalarea</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightententorhinalarea</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/rightententorhinalarea</t>
   </si>
   <si>
     <t xml:space="preserve">Right Hippocampus</t>
@@ -1096,7 +1096,7 @@
     <t xml:space="preserve">righthippocampus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/righthippocampus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/righthippocampus</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle cingulate gyrus</t>
@@ -1105,7 +1105,7 @@
     <t xml:space="preserve">rightmcggmiddlecingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightmcggmiddlecingulategyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/rightmcggmiddlecingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right posterior cingulate gyrus</t>
@@ -1114,7 +1114,7 @@
     <t xml:space="preserve">rightpcggposteriorcingulategyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightpcggposteriorcingulategyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/rightpcggposteriorcingulategyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right parahippocampal gyrus</t>
@@ -1123,7 +1123,7 @@
     <t xml:space="preserve">rightphgparahippocampalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightphgparahippocampalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/rightphgparahippocampalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right Thalamus</t>
@@ -1132,7 +1132,7 @@
     <t xml:space="preserve">rightthalamusproper</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/limbic/rightthalamusproper</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/limbic/rightthalamusproper</t>
   </si>
   <si>
     <t xml:space="preserve">Left calcarine cortex</t>
@@ -1141,7 +1141,7 @@
     <t xml:space="preserve">leftcalccalcarinecortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftcalccalcarinecortex</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/leftcalccalcarinecortex</t>
   </si>
   <si>
     <t xml:space="preserve">Left cuneus</t>
@@ -1150,7 +1150,7 @@
     <t xml:space="preserve">leftcuncuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftcuncuneus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/leftcuncuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Left inferior occipital gyrus</t>
@@ -1159,7 +1159,7 @@
     <t xml:space="preserve">leftioginferioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftioginferioroccipitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/leftioginferioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left lingual gyrus</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">leftliglingualgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftliglingualgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/leftliglingualgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle occipital gyrus</t>
@@ -1177,7 +1177,7 @@
     <t xml:space="preserve">leftmogmiddleoccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftmogmiddleoccipitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/leftmogmiddleoccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left occipital pole</t>
@@ -1186,7 +1186,7 @@
     <t xml:space="preserve">leftocpoccipitalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftocpoccipitalpole</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/leftocpoccipitalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Left occipital fusiform gyrus</t>
@@ -1195,7 +1195,7 @@
     <t xml:space="preserve">leftofugoccipitalfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftofugoccipitalfusiformgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/leftofugoccipitalfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior occipital gyrus</t>
@@ -1204,7 +1204,7 @@
     <t xml:space="preserve">leftsogsuperioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/leftsogsuperioroccipitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/leftsogsuperioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right calcarine cortex</t>
@@ -1213,7 +1213,7 @@
     <t xml:space="preserve">rightcalccalcarinecortex</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightcalccalcarinecortex</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/rightcalccalcarinecortex</t>
   </si>
   <si>
     <t xml:space="preserve">Right cuneus</t>
@@ -1222,7 +1222,7 @@
     <t xml:space="preserve">rightcuncuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightcuncuneus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/rightcuncuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Right inferior occipital gyrus</t>
@@ -1231,7 +1231,7 @@
     <t xml:space="preserve">rightioginferioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightioginferioroccipitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/rightioginferioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right lingual gyrus</t>
@@ -1240,7 +1240,7 @@
     <t xml:space="preserve">rightliglingualgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightliglingualgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/rightliglingualgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle occipital gyrus</t>
@@ -1249,7 +1249,7 @@
     <t xml:space="preserve">rightmogmiddleoccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightmogmiddleoccipitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/rightmogmiddleoccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right occipital pole</t>
@@ -1258,7 +1258,7 @@
     <t xml:space="preserve">rightocpoccipitalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightocpoccipitalpole</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/rightocpoccipitalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Right occipital fusiform gyrus</t>
@@ -1267,7 +1267,7 @@
     <t xml:space="preserve">rightofugoccipitalfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightofugoccipitalfusiformgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/rightofugoccipitalfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior occipital gyrus</t>
@@ -1276,7 +1276,7 @@
     <t xml:space="preserve">rightsogsuperioroccipitalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/occipital/rightsogsuperioroccipitalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/occipital/rightsogsuperioroccipitalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left angular gyrus</t>
@@ -1285,7 +1285,7 @@
     <t xml:space="preserve">leftangangulargyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftangangulargyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/leftangangulargyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left postcentral gyrus medial segment</t>
@@ -1294,7 +1294,7 @@
     <t xml:space="preserve">leftmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftmpogpostcentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/leftmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Left precuneus</t>
@@ -1303,7 +1303,7 @@
     <t xml:space="preserve">leftpcuprecuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftpcuprecuneus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/leftpcuprecuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Left postcentral gyrus</t>
@@ -1312,7 +1312,7 @@
     <t xml:space="preserve">leftpogpostcentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftpogpostcentralgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/leftpogpostcentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left supramarginal gyrus</t>
@@ -1321,7 +1321,7 @@
     <t xml:space="preserve">leftsmgsupramarginalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftsmgsupramarginalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/leftsmgsupramarginalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior parietal lobule</t>
@@ -1330,7 +1330,7 @@
     <t xml:space="preserve">leftsplsuperiorparietallobule</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/leftsplsuperiorparietallobule</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/leftsplsuperiorparietallobule</t>
   </si>
   <si>
     <t xml:space="preserve">Right angular gyrus</t>
@@ -1339,7 +1339,7 @@
     <t xml:space="preserve">rightangangulargyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightangangulargyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/rightangangulargyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right postcentral gyrus medial segment</t>
@@ -1348,7 +1348,7 @@
     <t xml:space="preserve">rightmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightmpogpostcentralgyrusmedialsegment</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/rightmpogpostcentralgyrusmedialsegment</t>
   </si>
   <si>
     <t xml:space="preserve">Right precuneus</t>
@@ -1357,7 +1357,7 @@
     <t xml:space="preserve">rightpcuprecuneus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightpcuprecuneus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/rightpcuprecuneus</t>
   </si>
   <si>
     <t xml:space="preserve">Right postcentral gyrus</t>
@@ -1366,7 +1366,7 @@
     <t xml:space="preserve">rightpogpostcentralgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightpogpostcentralgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/rightpogpostcentralgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right supramarginal gyrus</t>
@@ -1375,7 +1375,7 @@
     <t xml:space="preserve">rightsmgsupramarginalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightsmgsupramarginalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/rightsmgsupramarginalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior parietal lobule</t>
@@ -1384,7 +1384,7 @@
     <t xml:space="preserve">rightsplsuperiorparietallobule</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/parietal/rightsplsuperiorparietallobule</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/parietal/rightsplsuperiorparietallobule</t>
   </si>
   <si>
     <t xml:space="preserve">Left fusiform gyrus</t>
@@ -1393,7 +1393,7 @@
     <t xml:space="preserve">leftfugfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftfugfusiformgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/leftfugfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left inferior temporal gyrus</t>
@@ -1402,7 +1402,7 @@
     <t xml:space="preserve">leftitginferiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftitginferiortemporalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/leftitginferiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left middle temporal gyrus</t>
@@ -1411,7 +1411,7 @@
     <t xml:space="preserve">leftmtgmiddletemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftmtgmiddletemporalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/leftmtgmiddletemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left planum polare</t>
@@ -1420,7 +1420,7 @@
     <t xml:space="preserve">leftppplanumpolare</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftppplanumpolare</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/leftppplanumpolare</t>
   </si>
   <si>
     <t xml:space="preserve">Left planum temporale</t>
@@ -1429,7 +1429,7 @@
     <t xml:space="preserve">leftptplanumtemporale</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftptplanumtemporale</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/leftptplanumtemporale</t>
   </si>
   <si>
     <t xml:space="preserve">Left superior temporal gyrus</t>
@@ -1438,7 +1438,7 @@
     <t xml:space="preserve">leftstgsuperiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftstgsuperiortemporalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/leftstgsuperiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left temporal pole</t>
@@ -1447,7 +1447,7 @@
     <t xml:space="preserve">lefttmptemporalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/lefttmptemporalpole</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/lefttmptemporalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Left transverse temporal gyrus</t>
@@ -1456,7 +1456,7 @@
     <t xml:space="preserve">leftttgtransversetemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/leftttgtransversetemporalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/leftttgtransversetemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right fusiform gyrus</t>
@@ -1465,7 +1465,7 @@
     <t xml:space="preserve">rightfugfusiformgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightfugfusiformgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/rightfugfusiformgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right inferior temporal gyrus</t>
@@ -1474,7 +1474,7 @@
     <t xml:space="preserve">rightitginferiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightitginferiortemporalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/rightitginferiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right middle temporal gyrus</t>
@@ -1483,7 +1483,7 @@
     <t xml:space="preserve">rightmtgmiddletemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightmtgmiddletemporalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/rightmtgmiddletemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right planum polare</t>
@@ -1492,7 +1492,7 @@
     <t xml:space="preserve">rightppplanumpolare</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightppplanumpolare</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/rightppplanumpolare</t>
   </si>
   <si>
     <t xml:space="preserve">Right planum temporale</t>
@@ -1501,7 +1501,7 @@
     <t xml:space="preserve">rightptplanumtemporale</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightptplanumtemporale</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/rightptplanumtemporale</t>
   </si>
   <si>
     <t xml:space="preserve">Right superior temporal gyrus</t>
@@ -1510,7 +1510,7 @@
     <t xml:space="preserve">rightstgsuperiortemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightstgsuperiortemporalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/rightstgsuperiortemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Right temporal pole</t>
@@ -1519,7 +1519,7 @@
     <t xml:space="preserve">righttmptemporalpole</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/righttmptemporalpole</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/righttmptemporalpole</t>
   </si>
   <si>
     <t xml:space="preserve">Right transverse temporal gyrus</t>
@@ -1528,7 +1528,7 @@
     <t xml:space="preserve">rightttgtransversetemporalgyrus</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/temporal/rightttgtransversetemporalgyrus</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/grey_matter_volume/temporal/rightttgtransversetemporalgyrus</t>
   </si>
   <si>
     <t xml:space="preserve">Left Cerebellum White Matter</t>
@@ -1537,7 +1537,7 @@
     <t xml:space="preserve">leftcerebellumwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/leftcerebellumwhitematter</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/white_matter_volume/leftcerebellumwhitematter</t>
   </si>
   <si>
     <t xml:space="preserve">Left Cerebral White Matter</t>
@@ -1546,7 +1546,7 @@
     <t xml:space="preserve">leftcerebralwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/leftcerebralwhitematter</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/white_matter_volume/leftcerebralwhitematter</t>
   </si>
   <si>
     <t xml:space="preserve">Optic chiasm</t>
@@ -1555,7 +1555,7 @@
     <t xml:space="preserve">opticchiasm</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/opticchiasm</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/white_matter_volume/opticchiasm</t>
   </si>
   <si>
     <t xml:space="preserve">Right Cerebellum White Matter</t>
@@ -1564,7 +1564,7 @@
     <t xml:space="preserve">rightcerebellumwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/rightcerebellumwhitematter</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/white_matter_volume/rightcerebellumwhitematter</t>
   </si>
   <si>
     <t xml:space="preserve">Right Cerebral White Matter</t>
@@ -1573,7 +1573,7 @@
     <t xml:space="preserve">rightcerebralwhitematter</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/brain_anatomy/white_matter_volume/rightcerebralwhitematter</t>
+    <t xml:space="preserve">/tbi/brain_anatomy/white_matter_volume/rightcerebralwhitematter</t>
   </si>
 </sst>
 </file>
@@ -1718,21 +1718,24 @@
   </sheetPr>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="81.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,7 +2476,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -2498,8 +2501,11 @@
       <c r="J25" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -2524,8 +2530,11 @@
       <c r="J26" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -2548,8 +2557,11 @@
       <c r="J27" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -2572,8 +2584,11 @@
       <c r="J28" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K28" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -2596,8 +2611,11 @@
       <c r="J29" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -2620,8 +2638,11 @@
       <c r="J30" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -2644,8 +2665,11 @@
       <c r="J31" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -2668,8 +2692,11 @@
       <c r="J32" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -2692,8 +2719,11 @@
       <c r="J33" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -2716,8 +2746,11 @@
       <c r="J34" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -2740,8 +2773,11 @@
       <c r="J35" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K35" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -2764,8 +2800,11 @@
       <c r="J36" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K36" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -2788,8 +2827,11 @@
       <c r="J37" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -2812,8 +2854,11 @@
       <c r="J38" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K38" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -2836,8 +2881,11 @@
       <c r="J39" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K39" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -2860,8 +2908,11 @@
       <c r="J40" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K40" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -2884,8 +2935,11 @@
       <c r="J41" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K41" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -2908,8 +2962,11 @@
       <c r="J42" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K42" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -2932,8 +2989,11 @@
       <c r="J43" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K43" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -2956,8 +3016,11 @@
       <c r="J44" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K44" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -2980,8 +3043,11 @@
       <c r="J45" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K45" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -3004,8 +3070,11 @@
       <c r="J46" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K46" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -3028,8 +3097,11 @@
       <c r="J47" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K47" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -3052,8 +3124,11 @@
       <c r="J48" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K48" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -3076,8 +3151,11 @@
       <c r="J49" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K49" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -3100,8 +3178,11 @@
       <c r="J50" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K50" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -3124,8 +3205,11 @@
       <c r="J51" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K51" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -3148,8 +3232,11 @@
       <c r="J52" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K52" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -3172,8 +3259,11 @@
       <c r="J53" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K53" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -3196,8 +3286,11 @@
       <c r="J54" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K54" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -3220,8 +3313,11 @@
       <c r="J55" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K55" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -3244,8 +3340,11 @@
       <c r="J56" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K56" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
@@ -3268,8 +3367,11 @@
       <c r="J57" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K57" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
@@ -3292,8 +3394,11 @@
       <c r="J58" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K58" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
@@ -3316,8 +3421,11 @@
       <c r="J59" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K59" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
@@ -3340,8 +3448,11 @@
       <c r="J60" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K60" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
@@ -3364,8 +3475,11 @@
       <c r="J61" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K61" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
@@ -3388,8 +3502,11 @@
       <c r="J62" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K62" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
@@ -3412,8 +3529,11 @@
       <c r="J63" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K63" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>11</v>
       </c>
@@ -3436,8 +3556,11 @@
       <c r="J64" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K64" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>11</v>
       </c>
@@ -3460,8 +3583,11 @@
       <c r="J65" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K65" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>11</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="J66" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K66" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
@@ -3508,8 +3637,11 @@
       <c r="J67" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K67" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>11</v>
       </c>
@@ -3532,8 +3664,11 @@
       <c r="J68" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K68" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
@@ -3556,8 +3691,11 @@
       <c r="J69" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K69" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
@@ -3580,8 +3718,11 @@
       <c r="J70" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K70" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>11</v>
       </c>
@@ -3604,8 +3745,11 @@
       <c r="J71" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K71" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>11</v>
       </c>
@@ -3628,8 +3772,11 @@
       <c r="J72" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K72" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -3652,8 +3799,11 @@
       <c r="J73" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K73" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>11</v>
       </c>
@@ -3676,8 +3826,11 @@
       <c r="J74" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K74" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
@@ -3700,8 +3853,11 @@
       <c r="J75" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K75" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>11</v>
       </c>
@@ -3724,8 +3880,11 @@
       <c r="J76" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K76" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>11</v>
       </c>
@@ -3748,8 +3907,11 @@
       <c r="J77" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K77" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>11</v>
       </c>
@@ -3772,8 +3934,11 @@
       <c r="J78" s="4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K78" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>11</v>
       </c>
@@ -3796,8 +3961,11 @@
       <c r="J79" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K79" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>11</v>
       </c>
@@ -3820,8 +3988,11 @@
       <c r="J80" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K80" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
@@ -3844,8 +4015,11 @@
       <c r="J81" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K81" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>11</v>
       </c>
@@ -3868,8 +4042,11 @@
       <c r="J82" s="4" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K82" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>11</v>
       </c>
@@ -3892,8 +4069,11 @@
       <c r="J83" s="4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K83" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -3916,8 +4096,11 @@
       <c r="J84" s="4" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K84" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>11</v>
       </c>
@@ -3940,8 +4123,11 @@
       <c r="J85" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K85" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>11</v>
       </c>
@@ -3964,8 +4150,11 @@
       <c r="J86" s="4" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K86" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>11</v>
       </c>
@@ -3988,8 +4177,11 @@
       <c r="J87" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K87" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>11</v>
       </c>
@@ -4012,8 +4204,11 @@
       <c r="J88" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K88" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>11</v>
       </c>
@@ -4036,8 +4231,11 @@
       <c r="J89" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K89" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>11</v>
       </c>
@@ -4060,8 +4258,11 @@
       <c r="J90" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K90" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>11</v>
       </c>
@@ -4084,8 +4285,11 @@
       <c r="J91" s="4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K91" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>11</v>
       </c>
@@ -4108,8 +4312,11 @@
       <c r="J92" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K92" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>11</v>
       </c>
@@ -4132,8 +4339,11 @@
       <c r="J93" s="4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K93" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
         <v>11</v>
       </c>
@@ -4156,8 +4366,11 @@
       <c r="J94" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K94" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
         <v>11</v>
       </c>
@@ -4180,8 +4393,11 @@
       <c r="J95" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K95" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
         <v>11</v>
       </c>
@@ -4204,8 +4420,11 @@
       <c r="J96" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K96" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -4228,8 +4447,11 @@
       <c r="J97" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K97" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
         <v>11</v>
       </c>
@@ -4252,8 +4474,11 @@
       <c r="J98" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K98" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
@@ -4276,8 +4501,11 @@
       <c r="J99" s="4" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K99" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>11</v>
       </c>
@@ -4300,8 +4528,11 @@
       <c r="J100" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K100" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
@@ -4324,8 +4555,11 @@
       <c r="J101" s="4" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K101" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
@@ -4348,8 +4582,11 @@
       <c r="J102" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K102" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>11</v>
       </c>
@@ -4372,8 +4609,11 @@
       <c r="J103" s="4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K103" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
         <v>11</v>
       </c>
@@ -4396,8 +4636,11 @@
       <c r="J104" s="4" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K104" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>11</v>
       </c>
@@ -4420,8 +4663,11 @@
       <c r="J105" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K105" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>11</v>
       </c>
@@ -4444,8 +4690,11 @@
       <c r="J106" s="4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K106" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>11</v>
       </c>
@@ -4468,8 +4717,11 @@
       <c r="J107" s="4" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K107" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>11</v>
       </c>
@@ -4492,8 +4744,11 @@
       <c r="J108" s="4" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K108" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>11</v>
       </c>
@@ -4516,8 +4771,11 @@
       <c r="J109" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K109" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>11</v>
       </c>
@@ -4540,8 +4798,11 @@
       <c r="J110" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K110" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>11</v>
       </c>
@@ -4564,8 +4825,11 @@
       <c r="J111" s="4" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K111" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>11</v>
       </c>
@@ -4588,8 +4852,11 @@
       <c r="J112" s="4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K112" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>11</v>
       </c>
@@ -4612,8 +4879,11 @@
       <c r="J113" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K113" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>11</v>
       </c>
@@ -4636,8 +4906,11 @@
       <c r="J114" s="4" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K114" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>11</v>
       </c>
@@ -4660,8 +4933,11 @@
       <c r="J115" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K115" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -4684,8 +4960,11 @@
       <c r="J116" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K116" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>11</v>
       </c>
@@ -4708,8 +4987,11 @@
       <c r="J117" s="4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K117" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
         <v>11</v>
       </c>
@@ -4732,8 +5014,11 @@
       <c r="J118" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K118" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -4756,8 +5041,11 @@
       <c r="J119" s="4" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K119" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
         <v>11</v>
       </c>
@@ -4780,8 +5068,11 @@
       <c r="J120" s="4" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K120" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
         <v>11</v>
       </c>
@@ -4804,8 +5095,11 @@
       <c r="J121" s="4" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K121" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>11</v>
       </c>
@@ -4828,8 +5122,11 @@
       <c r="J122" s="4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K122" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>11</v>
       </c>
@@ -4852,8 +5149,11 @@
       <c r="J123" s="4" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K123" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>11</v>
       </c>
@@ -4876,8 +5176,11 @@
       <c r="J124" s="4" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K124" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>11</v>
       </c>
@@ -4900,8 +5203,11 @@
       <c r="J125" s="4" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K125" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
         <v>11</v>
       </c>
@@ -4924,8 +5230,11 @@
       <c r="J126" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K126" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>11</v>
       </c>
@@ -4948,8 +5257,11 @@
       <c r="J127" s="4" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K127" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>11</v>
       </c>
@@ -4972,8 +5284,11 @@
       <c r="J128" s="4" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K128" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
         <v>11</v>
       </c>
@@ -4996,8 +5311,11 @@
       <c r="J129" s="4" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K129" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
         <v>11</v>
       </c>
@@ -5020,8 +5338,11 @@
       <c r="J130" s="4" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K130" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
         <v>11</v>
       </c>
@@ -5044,8 +5365,11 @@
       <c r="J131" s="4" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K131" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
         <v>11</v>
       </c>
@@ -5068,8 +5392,11 @@
       <c r="J132" s="4" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K132" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
         <v>11</v>
       </c>
@@ -5092,8 +5419,11 @@
       <c r="J133" s="4" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K133" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>11</v>
       </c>
@@ -5116,8 +5446,11 @@
       <c r="J134" s="4" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K134" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>11</v>
       </c>
@@ -5140,8 +5473,11 @@
       <c r="J135" s="4" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K135" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>11</v>
       </c>
@@ -5164,8 +5500,11 @@
       <c r="J136" s="4" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K136" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>11</v>
       </c>
@@ -5188,8 +5527,11 @@
       <c r="J137" s="4" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K137" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>11</v>
       </c>
@@ -5212,8 +5554,11 @@
       <c r="J138" s="4" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K138" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
         <v>11</v>
       </c>
@@ -5236,8 +5581,11 @@
       <c r="J139" s="4" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K139" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>11</v>
       </c>
@@ -5260,8 +5608,11 @@
       <c r="J140" s="4" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K140" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
         <v>11</v>
       </c>
@@ -5284,8 +5635,11 @@
       <c r="J141" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K141" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
         <v>11</v>
       </c>
@@ -5308,8 +5662,11 @@
       <c r="J142" s="4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K142" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>11</v>
       </c>
@@ -5332,8 +5689,11 @@
       <c r="J143" s="4" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K143" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>11</v>
       </c>
@@ -5356,8 +5716,11 @@
       <c r="J144" s="4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K144" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
         <v>11</v>
       </c>
@@ -5380,8 +5743,11 @@
       <c r="J145" s="4" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K145" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
         <v>11</v>
       </c>
@@ -5404,8 +5770,11 @@
       <c r="J146" s="4" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K146" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>11</v>
       </c>
@@ -5428,8 +5797,11 @@
       <c r="J147" s="4" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K147" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>11</v>
       </c>
@@ -5452,8 +5824,11 @@
       <c r="J148" s="4" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K148" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>11</v>
       </c>
@@ -5476,8 +5851,11 @@
       <c r="J149" s="4" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K149" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>11</v>
       </c>
@@ -5500,8 +5878,11 @@
       <c r="J150" s="4" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K150" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
         <v>11</v>
       </c>
@@ -5524,8 +5905,11 @@
       <c r="J151" s="4" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K151" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
         <v>11</v>
       </c>
@@ -5548,8 +5932,11 @@
       <c r="J152" s="4" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K152" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
         <v>11</v>
       </c>
@@ -5572,8 +5959,11 @@
       <c r="J153" s="4" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K153" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
         <v>11</v>
       </c>
@@ -5596,8 +5986,11 @@
       <c r="J154" s="4" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K154" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
         <v>11</v>
       </c>
@@ -5620,8 +6013,11 @@
       <c r="J155" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K155" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
         <v>11</v>
       </c>
@@ -5644,8 +6040,11 @@
       <c r="J156" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K156" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
         <v>11</v>
       </c>
@@ -5668,8 +6067,11 @@
       <c r="J157" s="4" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K157" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
         <v>11</v>
       </c>
@@ -5692,8 +6094,11 @@
       <c r="J158" s="4" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K158" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
         <v>11</v>
       </c>
@@ -5715,6 +6120,9 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4" t="s">
         <v>517</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
